--- a/unstructTest.xlsx
+++ b/unstructTest.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -86,7 +85,7 @@
     <t>čisto, suho skladišče</t>
   </si>
   <si>
-    <t>26.05.2009</t>
+    <t>26.05.2008</t>
   </si>
   <si>
     <t>s pihanjem oblikovano belo steklo (steklo ustreza III hidrolitski skupini ISO 719/85)</t>

--- a/unstructTest.xlsx
+++ b/unstructTest.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,119 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>Barva</t>
-  </si>
-  <si>
-    <t>Datum izdaje</t>
-  </si>
-  <si>
-    <t>Dobavitelj</t>
-  </si>
-  <si>
-    <t>Ime izdelka</t>
-  </si>
-  <si>
-    <t>Izgled</t>
-  </si>
-  <si>
-    <t>Masa</t>
-  </si>
-  <si>
-    <t>Pogoji skladiščenja</t>
-  </si>
-  <si>
-    <t>Predhodni datum</t>
-  </si>
-  <si>
-    <t>Sestava materiala</t>
-  </si>
-  <si>
-    <t>Višina kozarca</t>
-  </si>
-  <si>
-    <t>Volumen</t>
-  </si>
-  <si>
-    <t>Vonj</t>
-  </si>
-  <si>
-    <t>Ø grla</t>
-  </si>
-  <si>
-    <t>Ø kozarca</t>
-  </si>
-  <si>
-    <t>Ø navoja grla</t>
-  </si>
-  <si>
-    <t>Šifra</t>
-  </si>
-  <si>
-    <t>določena s potrjenim standardnim vzorcem</t>
-  </si>
-  <si>
-    <t>23.3.16</t>
-  </si>
-  <si>
-    <t>VETROPACK STRAŽA d.d.</t>
-  </si>
-  <si>
-    <t>STAKLENKA 720 ml, št. izdelka: 6N008.0720.6141.A</t>
-  </si>
-  <si>
-    <t>snažni, mehansko nepoškodovani, brez ostrih robov, gladke površine, simetrično izdelani,</t>
-  </si>
-  <si>
-    <t>290 g ± 7</t>
-  </si>
-  <si>
-    <t>čisto, suho skladišče</t>
-  </si>
-  <si>
-    <t>26.05.2008</t>
-  </si>
-  <si>
-    <t>s pihanjem oblikovano belo steklo (steklo ustreza III hidrolitski skupini ISO 719/85)</t>
-  </si>
-  <si>
-    <t>151,9 mm ± 1,3</t>
-  </si>
-  <si>
-    <t>720 ml ± 15</t>
-  </si>
-  <si>
-    <t>brez neprijetnega vonja</t>
-  </si>
-  <si>
-    <t>77,6 mm ± 0.45</t>
-  </si>
-  <si>
-    <t>86,7 mm ± 1.6</t>
-  </si>
-  <si>
-    <t>80.75 mm ± 0.45</t>
-  </si>
-  <si>
-    <t>61001</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -145,22 +46,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -458,115 +349,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>